--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -440,7 +440,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -692,6 +692,92 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-changed) &lt;&lt;referenced, bundled&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>The changed MedicationStatement</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension:medicationRequestChanged</t>
+  </si>
+  <si>
+    <t>medicationRequestChanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed}
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:medicationRequestChanged.id</t>
+  </si>
+  <si>
+    <t>Observation.extension:medicationRequestChanged.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:medicationRequestChanged.url</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed</t>
+  </si>
+  <si>
+    <t>Observation.extension:medicationRequestChanged.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationrequest-changed) &lt;&lt;referenced, bundled&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>The changed MedicationRequest</t>
+  </si>
+  <si>
+    <t>Observation.extension:parentDocument</t>
+  </si>
+  <si>
+    <t>parentDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-pharmaceuticaladvice}
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:authorDocument</t>
+  </si>
+  <si>
+    <t>authorDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>Observation.extension:authorDocument.id</t>
+  </si>
+  <si>
+    <t>Observation.extension:authorDocument.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:authorDocument.url</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author</t>
+  </si>
+  <si>
+    <t>Observation.extension:authorDocument.value[x]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
@@ -699,9 +785,6 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -709,93 +792,10 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationStatementChanged.value[x]:valueReference</t>
+    <t>Observation.extension:authorDocument.value[x]:valueReference</t>
   </si>
   <si>
     <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-changed) &lt;&lt;referenced, bundled&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>The changed MedicationStatement</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationRequestChanged</t>
-  </si>
-  <si>
-    <t>medicationRequestChanged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed}
-</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationRequestChanged.id</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationRequestChanged.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationRequestChanged.url</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationRequestChanged.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:medicationRequestChanged.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationrequest-changed) &lt;&lt;referenced, bundled&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>The changed MedicationRequest</t>
-  </si>
-  <si>
-    <t>Observation.extension:parentDocument</t>
-  </si>
-  <si>
-    <t>parentDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-pharmaceuticaladvice}
-</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument</t>
-  </si>
-  <si>
-    <t>authorDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author}
-</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.id</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.url</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
@@ -1265,7 +1265,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ihe-pharmaceuticaladvicestatuslist</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2337,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP114"/>
+  <dimension ref="A1:AP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2346,17 +2346,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="75.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="223.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2365,28 +2365,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.1171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5336,17 +5336,19 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5381,20 +5383,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>94</v>
@@ -5409,13 +5411,13 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5466,19 +5468,19 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>83</v>
@@ -5490,7 +5492,7 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5501,14 +5503,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>83</v>
       </c>
@@ -5529,13 +5529,13 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5586,19 +5586,19 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5610,7 +5610,7 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5635,7 +5635,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5647,13 +5647,13 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5692,31 +5692,31 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>83</v>
@@ -5728,7 +5728,7 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5750,10 +5750,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5765,22 +5765,24 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>83</v>
@@ -5810,31 +5812,31 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
@@ -5846,7 +5848,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5857,10 +5859,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5883,24 +5885,22 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>83</v>
@@ -5942,10 +5942,10 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>94</v>
@@ -5954,7 +5954,7 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
@@ -5977,12 +5977,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>83</v>
       </c>
@@ -6003,13 +6005,13 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6048,29 +6050,31 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -6082,7 +6086,7 @@
         <v>83</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -6093,20 +6097,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>94</v>
@@ -6127,7 +6131,7 @@
         <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6178,19 +6182,19 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
@@ -6213,20 +6217,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>94</v>
@@ -6241,13 +6243,13 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6298,19 +6300,19 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6322,7 +6324,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6333,14 +6335,12 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6361,7 +6361,7 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>183</v>
@@ -6406,19 +6406,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>94</v>
@@ -6479,22 +6479,24 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>83</v>
@@ -6536,10 +6538,10 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>94</v>
@@ -6560,7 +6562,7 @@
         <v>83</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6571,10 +6573,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6582,10 +6584,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6597,13 +6599,13 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6642,31 +6644,29 @@
         <v>83</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6678,7 +6678,7 @@
         <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6689,12 +6689,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6715,24 +6717,22 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>83</v>
@@ -6774,10 +6774,10 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>94</v>
@@ -6786,7 +6786,7 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
@@ -6809,10 +6809,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>94</v>
@@ -6835,13 +6835,13 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6880,17 +6880,19 @@
         <v>83</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6902,7 +6904,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6914,7 +6916,7 @@
         <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6925,23 +6927,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6953,15 +6953,17 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6998,31 +7000,31 @@
         <v>83</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -7034,7 +7036,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7045,12 +7047,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
       </c>
@@ -7071,13 +7075,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7128,19 +7132,19 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -7152,7 +7156,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7163,21 +7167,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -7186,19 +7190,19 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7236,31 +7240,31 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -7272,7 +7276,7 @@
         <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7283,14 +7287,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7308,18 +7310,20 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7344,13 +7348,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7368,19 +7372,19 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7392,7 +7396,7 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7403,10 +7407,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7414,7 +7418,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>94</v>
@@ -7429,16 +7433,16 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7488,7 +7492,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7497,7 +7501,7 @@
         <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>106</v>
@@ -7512,7 +7516,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7523,10 +7527,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7549,16 +7553,16 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7584,13 +7588,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7608,7 +7612,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7643,10 +7647,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7657,28 +7661,28 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7728,19 +7732,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7752,7 +7756,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7763,10 +7767,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7774,7 +7778,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>94</v>
@@ -7789,18 +7793,18 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7848,13 +7852,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7863,19 +7867,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7883,10 +7887,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7897,29 +7901,27 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7968,19 +7970,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7992,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8003,21 +8005,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -8026,21 +8028,21 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -8076,19 +8078,19 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8100,22 +8102,22 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -8123,10 +8125,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8143,22 +8145,26 @@
         <v>83</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -8182,13 +8188,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8206,7 +8212,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8218,7 +8224,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -8227,10 +8233,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8241,21 +8247,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -8264,21 +8270,23 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8302,43 +8310,43 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8347,10 +8355,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8361,10 +8369,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8372,7 +8380,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>94</v>
@@ -8381,38 +8389,38 @@
         <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>83</v>
@@ -8424,13 +8432,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -8448,7 +8456,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8469,10 +8477,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8483,10 +8491,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8494,7 +8502,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>94</v>
@@ -8509,20 +8517,18 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8534,7 +8540,7 @@
         <v>83</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>83</v>
@@ -8546,13 +8552,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8570,7 +8576,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8591,10 +8597,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8605,10 +8611,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8616,7 +8622,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>94</v>
@@ -8631,32 +8637,28 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>83</v>
@@ -8692,7 +8694,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8713,10 +8715,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8727,10 +8729,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8738,7 +8740,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>94</v>
@@ -8753,16 +8755,16 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8776,7 +8778,7 @@
         <v>83</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>83</v>
@@ -8812,7 +8814,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8833,10 +8835,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8847,21 +8849,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8873,16 +8875,18 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>115</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>116</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8930,13 +8934,13 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
@@ -8945,16 +8949,16 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8965,21 +8969,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8991,16 +8995,16 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9050,13 +9054,13 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
@@ -9065,16 +9069,16 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9085,50 +9089,52 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>361</v>
+        <v>158</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>83</v>
@@ -9146,13 +9152,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9170,13 +9176,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -9185,19 +9191,19 @@
         <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9205,14 +9211,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9228,10 +9234,10 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>115</v>
@@ -9240,9 +9246,11 @@
         <v>116</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9266,13 +9274,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9290,7 +9298,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9305,19 +9313,19 @@
         <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9325,14 +9333,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9345,32 +9353,32 @@
         <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>83</v>
@@ -9390,11 +9398,9 @@
       <c r="X59" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9412,7 +9418,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>94</v>
@@ -9427,30 +9433,30 @@
         <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>83</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9461,7 +9467,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9470,22 +9476,22 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>116</v>
+        <v>409</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9510,13 +9516,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9534,13 +9540,13 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
@@ -9549,19 +9555,19 @@
         <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9569,18 +9575,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>94</v>
@@ -9592,23 +9598,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9632,11 +9634,13 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9654,10 +9658,10 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>111</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>94</v>
@@ -9666,44 +9670,44 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>403</v>
+        <v>112</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9712,23 +9716,21 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>407</v>
+        <v>114</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>256</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9764,46 +9766,46 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>414</v>
+        <v>112</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9811,10 +9813,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9822,7 +9824,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>94</v>
@@ -9834,18 +9836,20 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9894,7 +9898,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9903,10 +9907,10 @@
         <v>94</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
@@ -9918,7 +9922,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9929,21 +9933,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>83</v>
@@ -9952,19 +9956,19 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9990,43 +9994,43 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -10038,7 +10042,7 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10049,10 +10053,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10060,7 +10064,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>94</v>
@@ -10075,16 +10079,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10134,7 +10138,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10143,7 +10147,7 @@
         <v>94</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>106</v>
@@ -10158,7 +10162,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10169,10 +10173,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10195,16 +10199,16 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10230,13 +10234,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10254,7 +10258,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10289,10 +10293,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10303,7 +10307,7 @@
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
@@ -10315,16 +10319,16 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>281</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>284</v>
+        <v>424</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10374,13 +10378,13 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>285</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
@@ -10395,13 +10399,13 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>286</v>
+        <v>425</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10409,14 +10413,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10435,18 +10439,20 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>108</v>
+        <v>428</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10494,7 +10500,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>292</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10509,19 +10515,19 @@
         <v>106</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>181</v>
+        <v>433</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>83</v>
+        <v>434</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10529,21 +10535,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>83</v>
@@ -10555,18 +10561,20 @@
         <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>115</v>
+        <v>438</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>116</v>
+        <v>439</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10602,25 +10610,23 @@
         <v>83</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
@@ -10629,19 +10635,19 @@
         <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>83</v>
+        <v>442</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10649,14 +10655,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10675,19 +10683,19 @@
         <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>116</v>
+        <v>439</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10736,7 +10744,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10751,19 +10759,19 @@
         <v>106</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>83</v>
@@ -10771,18 +10779,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>94</v>
@@ -10797,20 +10805,18 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>437</v>
+        <v>126</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10846,17 +10852,19 @@
         <v>83</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10871,19 +10879,19 @@
         <v>106</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -10891,20 +10899,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>94</v>
@@ -10919,19 +10925,17 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10980,13 +10984,13 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
@@ -10995,19 +10999,19 @@
         <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>83</v>
@@ -11015,10 +11019,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11026,7 +11030,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>94</v>
@@ -11038,20 +11042,18 @@
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>109</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11100,7 +11102,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>111</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11112,7 +11114,7 @@
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -11121,13 +11123,13 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>455</v>
+        <v>112</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>83</v>
@@ -11135,21 +11137,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
@@ -11158,21 +11160,21 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>458</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>459</v>
+        <v>256</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -11208,19 +11210,19 @@
         <v>83</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>457</v>
+        <v>120</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11232,22 +11234,22 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>463</v>
+        <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>464</v>
+        <v>112</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>83</v>
@@ -11255,10 +11257,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11266,7 +11268,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>94</v>
@@ -11278,18 +11280,20 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11338,7 +11342,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11347,10 +11351,10 @@
         <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11362,7 +11366,7 @@
         <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11373,21 +11377,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
@@ -11396,19 +11400,19 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11434,43 +11438,43 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
@@ -11482,7 +11486,7 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11493,10 +11497,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11504,7 +11508,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>94</v>
@@ -11519,16 +11523,16 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11578,7 +11582,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11587,7 +11591,7 @@
         <v>94</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>106</v>
@@ -11602,7 +11606,7 @@
         <v>83</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11613,10 +11617,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11639,16 +11643,16 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11674,13 +11678,13 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11698,7 +11702,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11733,10 +11737,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11759,18 +11763,20 @@
         <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>281</v>
+        <v>473</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>285</v>
+        <v>472</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11827,7 +11833,7 @@
         <v>94</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -11836,27 +11842,27 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>286</v>
+        <v>479</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11876,21 +11882,23 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -11914,13 +11922,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>83</v>
+        <v>484</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>83</v>
+        <v>485</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -11938,7 +11946,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>292</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11947,7 +11955,7 @@
         <v>94</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>83</v>
+        <v>486</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>106</v>
@@ -11959,10 +11967,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>181</v>
+        <v>487</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11973,21 +11981,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -11996,10 +12004,10 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>473</v>
+        <v>317</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>115</v>
@@ -12008,10 +12016,10 @@
         <v>116</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12036,13 +12044,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12060,16 +12068,16 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>106</v>
@@ -12078,27 +12086,27 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12106,7 +12114,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>94</v>
@@ -12121,19 +12129,19 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>317</v>
+        <v>499</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>116</v>
+        <v>501</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12158,13 +12166,13 @@
         <v>83</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -12182,16 +12190,16 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>106</v>
@@ -12203,10 +12211,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12217,21 +12225,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>83</v>
@@ -12243,7 +12251,7 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>115</v>
@@ -12251,12 +12259,8 @@
       <c r="M83" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12280,13 +12284,13 @@
         <v>83</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>492</v>
+        <v>83</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -12304,45 +12308,45 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>488</v>
+        <v>111</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>496</v>
+        <v>112</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12350,10 +12354,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>83</v>
@@ -12365,20 +12369,16 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>499</v>
+        <v>114</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12414,19 +12414,19 @@
         <v>83</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>498</v>
+        <v>120</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12438,7 +12438,7 @@
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>83</v>
@@ -12447,10 +12447,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>504</v>
+        <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12461,10 +12461,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12484,18 +12484,20 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>509</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>115</v>
+        <v>510</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12544,7 +12546,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>111</v>
+        <v>512</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12556,7 +12558,7 @@
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
@@ -12565,10 +12567,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12579,10 +12581,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12593,7 +12595,7 @@
         <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>83</v>
@@ -12602,10 +12604,10 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>114</v>
+        <v>448</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>115</v>
@@ -12650,31 +12652,31 @@
         <v>83</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>83</v>
@@ -12683,10 +12685,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12697,10 +12699,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12708,7 +12710,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>94</v>
@@ -12723,17 +12725,15 @@
         <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12782,10 +12782,10 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>94</v>
@@ -12806,7 +12806,7 @@
         <v>181</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12817,10 +12817,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12840,10 +12840,10 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>448</v>
+        <v>317</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>115</v>
@@ -12851,7 +12851,9 @@
       <c r="M88" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12876,13 +12878,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>83</v>
+        <v>526</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12900,7 +12902,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12918,27 +12920,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>83</v>
+        <v>527</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>181</v>
+        <v>528</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>83</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12946,7 +12948,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>94</v>
@@ -12958,19 +12960,23 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>518</v>
+        <v>317</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>519</v>
+        <v>115</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -12994,13 +13000,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13018,10 +13024,10 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>94</v>
@@ -13039,10 +13045,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>181</v>
+        <v>536</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13053,10 +13059,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13079,7 +13085,7 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>317</v>
+        <v>539</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>115</v>
@@ -13088,7 +13094,7 @@
         <v>116</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13114,13 +13120,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>525</v>
+        <v>83</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13138,7 +13144,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13156,27 +13162,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13199,7 +13205,7 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>317</v>
+        <v>546</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>115</v>
@@ -13208,11 +13214,9 @@
         <v>116</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13236,13 +13240,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>535</v>
+        <v>83</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13260,7 +13264,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13278,27 +13282,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>83</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13309,7 +13313,7 @@
         <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>83</v>
@@ -13321,7 +13325,7 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>115</v>
@@ -13330,9 +13334,11 @@
         <v>116</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13380,45 +13386,45 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>106</v>
+        <v>556</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>541</v>
+        <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>544</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13441,17 +13447,15 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>546</v>
+        <v>108</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13500,7 +13504,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>545</v>
+        <v>111</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13512,37 +13516,37 @@
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>549</v>
+        <v>83</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>550</v>
+        <v>112</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>551</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13561,20 +13565,18 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>553</v>
+        <v>114</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13622,7 +13624,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>552</v>
+        <v>120</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13634,7 +13636,7 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>556</v>
+        <v>121</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>83</v>
@@ -13643,10 +13645,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>557</v>
+        <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>558</v>
+        <v>112</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13657,42 +13659,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>109</v>
+        <v>563</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
       </c>
@@ -13740,19 +13746,19 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>111</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -13764,7 +13770,7 @@
         <v>83</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13775,21 +13781,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>83</v>
@@ -13801,17 +13807,15 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>114</v>
+        <v>568</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -13860,19 +13864,19 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>120</v>
+        <v>567</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>83</v>
+        <v>571</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>83</v>
@@ -13881,10 +13885,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>83</v>
+        <v>572</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>112</v>
+        <v>573</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -13895,46 +13899,42 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>562</v>
+        <v>83</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>114</v>
+        <v>568</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -13982,19 +13982,19 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>83</v>
+        <v>571</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>83</v>
@@ -14003,10 +14003,10 @@
         <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>83</v>
+        <v>572</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>181</v>
+        <v>577</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14017,10 +14017,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14043,16 +14043,20 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>568</v>
+        <v>317</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
       </c>
@@ -14076,13 +14080,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>83</v>
+        <v>583</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>83</v>
+        <v>584</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14100,7 +14104,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14109,7 +14113,7 @@
         <v>94</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>106</v>
@@ -14118,13 +14122,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>573</v>
+        <v>496</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14135,10 +14139,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14149,7 +14153,7 @@
         <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>83</v>
@@ -14161,16 +14165,20 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>568</v>
+        <v>317</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
       </c>
@@ -14194,13 +14202,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>83</v>
+        <v>592</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>83</v>
+        <v>593</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14218,16 +14226,16 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>106</v>
@@ -14236,13 +14244,13 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>577</v>
+        <v>496</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14253,10 +14261,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14279,19 +14287,17 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>317</v>
+        <v>595</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14316,13 +14322,13 @@
         <v>83</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>583</v>
+        <v>83</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>584</v>
+        <v>83</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14340,7 +14346,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14358,13 +14364,13 @@
         <v>83</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>585</v>
+        <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>586</v>
+        <v>83</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>496</v>
+        <v>599</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14375,10 +14381,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14389,7 +14395,7 @@
         <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>83</v>
@@ -14401,20 +14407,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>83</v>
       </c>
@@ -14438,13 +14440,13 @@
         <v>83</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>592</v>
+        <v>83</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>593</v>
+        <v>83</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>83</v>
@@ -14462,13 +14464,13 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>83</v>
@@ -14480,13 +14482,13 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>585</v>
+        <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>496</v>
+        <v>603</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14497,10 +14499,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14511,7 +14513,7 @@
         <v>81</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>83</v>
@@ -14520,21 +14522,21 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>596</v>
+        <v>115</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>83</v>
       </c>
@@ -14582,13 +14584,13 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>83</v>
@@ -14603,10 +14605,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>83</v>
+        <v>607</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14617,10 +14619,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14631,7 +14633,7 @@
         <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>83</v>
@@ -14640,18 +14642,20 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>108</v>
+        <v>610</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>601</v>
+        <v>115</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14700,13 +14704,13 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>83</v>
@@ -14721,10 +14725,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14735,10 +14739,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14761,7 +14765,7 @@
         <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>115</v>
@@ -14770,9 +14774,11 @@
         <v>116</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
       </c>
@@ -14820,7 +14826,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14841,10 +14847,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14855,10 +14861,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14869,7 +14875,7 @@
         <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>83</v>
@@ -14878,20 +14884,18 @@
         <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>610</v>
+        <v>108</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>83</v>
@@ -14940,19 +14944,19 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>609</v>
+        <v>111</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
@@ -14961,10 +14965,10 @@
         <v>83</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>612</v>
+        <v>112</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -14975,14 +14979,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14998,23 +15002,21 @@
         <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>553</v>
+        <v>114</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>83</v>
       </c>
@@ -15062,7 +15064,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>613</v>
+        <v>120</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15074,7 +15076,7 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>83</v>
@@ -15083,10 +15085,10 @@
         <v>83</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>616</v>
+        <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>617</v>
+        <v>112</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15097,42 +15099,46 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>109</v>
+        <v>563</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>83</v>
       </c>
@@ -15180,19 +15186,19 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>111</v>
+        <v>566</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>83</v>
@@ -15204,7 +15210,7 @@
         <v>83</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15215,21 +15221,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>83</v>
@@ -15238,21 +15244,23 @@
         <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>256</v>
+        <v>622</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>257</v>
+        <v>623</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>83</v>
       </c>
@@ -15276,13 +15284,13 @@
         <v>83</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>83</v>
+        <v>625</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>83</v>
+        <v>626</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>83</v>
@@ -15300,34 +15308,34 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>120</v>
+        <v>621</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>83</v>
+        <v>627</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>112</v>
+        <v>403</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>83</v>
@@ -15335,45 +15343,45 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>562</v>
+        <v>83</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>114</v>
+        <v>473</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>258</v>
+        <v>631</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15422,45 +15430,45 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>181</v>
+        <v>479</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15468,7 +15476,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>94</v>
@@ -15480,22 +15488,22 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>317</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15520,13 +15528,13 @@
         <v>83</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>625</v>
+        <v>484</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>626</v>
+        <v>485</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15544,16 +15552,16 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>83</v>
+        <v>486</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>106</v>
@@ -15562,16 +15570,16 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>627</v>
+        <v>83</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>402</v>
+        <v>181</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>403</v>
+        <v>487</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>83</v>
@@ -15579,21 +15587,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>83</v>
@@ -15602,22 +15610,22 @@
         <v>83</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>473</v>
+        <v>317</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>631</v>
+        <v>490</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15642,13 +15650,13 @@
         <v>83</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>83</v>
@@ -15666,13 +15674,13 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>83</v>
@@ -15684,27 +15692,27 @@
         <v>83</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>632</v>
+        <v>494</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15715,7 +15723,7 @@
         <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>83</v>
@@ -15727,19 +15735,19 @@
         <v>83</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>636</v>
+        <v>554</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -15764,13 +15772,13 @@
         <v>83</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
@@ -15788,16 +15796,16 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>106</v>
@@ -15809,259 +15817,15 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>181</v>
+        <v>557</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>487</v>
+        <v>558</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP114" t="s" s="2">
         <v>83</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-obs-1:In case of a 'CHANGE', reference shall be made to an entry containing the changes. {code.coding.exists(system='urn:oid:1.3.6.1.4.1.19376.1.9.2.1' and code='CHANGE') implies extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed' or url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists()}only-one-obs-ref:A single reference (to either a medication treatment plan, prescription or dispense) SHALL be present {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()) and (extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()).not()}mtp-entry-only-with-ref:A changed MedicationStatement SHALL only be present with a medication treatment plan reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists().not()}pre-entry-only-with-ref:A changed MedicationRequest SHALL only be present with a medication request reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists().not()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-obs-1:In case of a 'CHANGE', reference SHALL be made to an entry containing the changes. {code.coding.exists(system='urn:oid:1.3.6.1.4.1.19376.1.9.2.1' and code='CHANGE') implies extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed' or url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists()}only-one-obs-ref:A single reference (to either a medication treatment plan, prescription or dispense) SHALL be present {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() xor extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()) and (extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-dispense').exists()).not()}mtp-entry-only-with-ref:A changed MedicationStatement SHALL only be present with a medication treatment plan reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-treatmentplan').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationstatement-changed').exists().not()}pre-entry-only-with-ref:A changed MedicationRequest SHALL only be present with a medication request reference, in a PADV CHANGE {(extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-prescription').exists() and extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists() and code.coding.single().code = 'CHANGE') or extension.where(url='http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ext-medicationrequest-changed').exists().not()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -433,7 +433,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -483,7 +483,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -527,7 +527,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -692,7 +692,7 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-changed) &lt;&lt;referenced, bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationstatement-changed-list) &lt;&lt;referenced, bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -730,7 +730,7 @@
     <t>Observation.extension:medicationRequestChanged.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medicationrequest-changed) &lt;&lt;referenced, bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-medication-request-changed-list) &lt;&lt;referenced, bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -778,26 +778,6 @@
     <t>Observation.extension:authorDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
 </t>
   </si>
@@ -805,13 +785,13 @@
     <t>Author of the content</t>
   </si>
   <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.id</t>
+    <t>Observation.extension:authorDocument.value[x].id</t>
   </si>
   <si>
     <t>Observation.extension.value[x].id</t>
   </si>
   <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.extension</t>
+    <t>Observation.extension:authorDocument.value[x].extension</t>
   </si>
   <si>
     <t>Observation.extension.value[x].extension</t>
@@ -830,7 +810,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.extension:time</t>
+    <t>Observation.extension:authorDocument.value[x].extension:time</t>
   </si>
   <si>
     <t>time</t>
@@ -843,10 +823,10 @@
     <t>Timestamp of the authorship/data input</t>
   </si>
   <si>
-    <t>Extension to define the timestamp of the authorship/data input</t>
-  </si>
-  <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.reference</t>
+    <t>Extension to define the timestamp of the authorship/data input. This extension has its origin from CDA and is deprecated.</t>
+  </si>
+  <si>
+    <t>Observation.extension:authorDocument.value[x].reference</t>
   </si>
   <si>
     <t>Observation.extension.value[x].reference</t>
@@ -868,7 +848,7 @@
 </t>
   </si>
   <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.type</t>
+    <t>Observation.extension:authorDocument.value[x].type</t>
   </si>
   <si>
     <t>Observation.extension.value[x].type</t>
@@ -887,13 +867,13 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.identifier</t>
+    <t>Observation.extension:authorDocument.value[x].identifier</t>
   </si>
   <si>
     <t>Observation.extension.value[x].identifier</t>
@@ -921,7 +901,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Observation.extension:authorDocument.value[x]:valueReference.display</t>
+    <t>Observation.extension:authorDocument.value[x].display</t>
   </si>
   <si>
     <t>Observation.extension.value[x].display</t>
@@ -942,7 +922,7 @@
     <t>Observation.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -951,6 +931,10 @@
     <t>Observation.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
     <t>Observation Identifier</t>
   </si>
   <si>
@@ -972,262 +956,101 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Observation.identifier.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.type</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Observation.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Observation.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Observation.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
@@ -1237,7 +1060,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1338,7 +1161,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1355,7 +1178,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1400,6 +1223,10 @@
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1449,7 +1276,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1534,7 +1361,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1560,7 +1387,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1609,7 +1436,7 @@
     <t>Observation.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1663,7 +1490,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1690,7 +1517,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1702,7 +1529,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1724,7 +1551,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1795,7 +1622,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1845,7 +1672,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1878,7 +1705,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1915,7 +1742,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1931,7 +1758,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1980,7 +1807,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2337,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP112"/>
+  <dimension ref="A1:AP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2346,17 +2173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.10546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="187.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2365,28 +2192,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6644,14 +6471,16 @@
         <v>83</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>219</v>
@@ -6689,20 +6518,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>94</v>
@@ -6717,13 +6544,13 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6774,7 +6601,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6786,7 +6613,7 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
@@ -6798,7 +6625,7 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6809,21 +6636,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6835,15 +6662,17 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6880,31 +6709,31 @@
         <v>83</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6930,18 +6759,20 @@
         <v>253</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6953,7 +6784,7 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>256</v>
@@ -6961,9 +6792,7 @@
       <c r="M39" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -7000,16 +6829,16 @@
         <v>83</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>120</v>
@@ -7036,7 +6865,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7047,20 +6876,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>94</v>
@@ -7072,18 +6899,20 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7132,19 +6961,19 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -7156,7 +6985,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7167,10 +6996,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7178,7 +7007,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>94</v>
@@ -7193,16 +7022,16 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7228,13 +7057,13 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -7252,7 +7081,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7261,7 +7090,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -7287,10 +7116,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7313,16 +7142,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7348,13 +7177,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7372,7 +7201,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7396,7 +7225,7 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7407,10 +7236,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7433,16 +7262,16 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7492,7 +7321,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7516,7 +7345,7 @@
         <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7530,7 +7359,7 @@
         <v>287</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7541,28 +7370,28 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7612,19 +7441,19 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7636,7 +7465,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7647,10 +7476,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7658,33 +7487,33 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="J45" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7732,7 +7561,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7744,22 +7573,22 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7767,21 +7596,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7793,17 +7622,17 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7852,7 +7681,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7867,19 +7696,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7887,21 +7716,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7910,18 +7739,20 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7970,31 +7801,31 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8005,50 +7836,52 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>83</v>
@@ -8066,58 +7899,58 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -8125,10 +7958,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8139,31 +7972,31 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8188,13 +8021,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8212,13 +8045,13 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>83</v>
@@ -8233,13 +8066,13 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8247,18 +8080,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>94</v>
@@ -8273,19 +8106,19 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8310,13 +8143,11 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8334,10 +8165,10 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>94</v>
@@ -8349,30 +8180,30 @@
         <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>83</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8380,7 +8211,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>94</v>
@@ -8395,32 +8226,32 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>83</v>
@@ -8456,7 +8287,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8471,19 +8302,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8491,10 +8322,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8502,7 +8333,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>94</v>
@@ -8514,20 +8345,18 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8540,7 +8369,7 @@
         <v>83</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>83</v>
@@ -8576,7 +8405,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8588,7 +8417,7 @@
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8597,10 +8426,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8611,21 +8440,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8634,18 +8463,20 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>250</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8682,31 +8513,31 @@
         <v>83</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8715,10 +8546,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>350</v>
+        <v>112</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8729,10 +8560,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8740,7 +8571,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>94</v>
@@ -8755,16 +8586,16 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
+        <v>261</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8814,7 +8645,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8823,7 +8654,7 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8835,10 +8666,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8849,21 +8680,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8875,18 +8706,18 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8910,13 +8741,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8934,13 +8765,13 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
@@ -8949,16 +8780,16 @@
         <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8969,21 +8800,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8995,16 +8826,16 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>369</v>
+        <v>278</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9054,13 +8885,13 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
@@ -9069,16 +8900,16 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9089,10 +8920,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9100,7 +8931,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>94</v>
@@ -9109,32 +8940,30 @@
         <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>83</v>
@@ -9152,13 +8981,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -9176,10 +9005,10 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>94</v>
@@ -9191,19 +9020,19 @@
         <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9211,10 +9040,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9234,10 +9063,10 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>115</v>
@@ -9246,11 +9075,9 @@
         <v>116</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9274,13 +9101,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -9298,7 +9125,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9319,13 +9146,13 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9333,18 +9160,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>94</v>
@@ -9359,19 +9186,19 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9396,11 +9223,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9418,10 +9247,10 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>94</v>
@@ -9433,34 +9262,34 @@
         <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9479,19 +9308,19 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9528,19 +9357,17 @@
         <v>83</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9555,19 +9382,19 @@
         <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9575,14 +9402,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9598,19 +9427,23 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>109</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9658,7 +9491,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9670,22 +9503,22 @@
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>112</v>
+        <v>387</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9693,21 +9526,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9716,19 +9549,19 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>257</v>
+        <v>395</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>258</v>
+        <v>396</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9766,31 +9599,31 @@
         <v>83</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9799,13 +9632,13 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>112</v>
+        <v>398</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9813,10 +9646,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9839,18 +9672,18 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>401</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>266</v>
+        <v>402</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9898,34 +9731,34 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>83</v>
+        <v>405</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -9933,10 +9766,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9956,20 +9789,18 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>273</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9994,13 +9825,13 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -10018,7 +9849,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10030,7 +9861,7 @@
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -10042,7 +9873,7 @@
         <v>83</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10053,21 +9884,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -10076,19 +9907,19 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10126,31 +9957,31 @@
         <v>83</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -10162,7 +9993,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10173,10 +10004,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10184,7 +10015,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>94</v>
@@ -10202,13 +10033,13 @@
         <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10258,7 +10089,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10267,7 +10098,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10293,10 +10124,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10307,7 +10138,7 @@
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
@@ -10319,16 +10150,16 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10354,13 +10185,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10378,13 +10209,13 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
@@ -10399,13 +10230,13 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>
@@ -10413,14 +10244,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10439,20 +10270,18 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>428</v>
+        <v>275</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
       </c>
@@ -10500,7 +10329,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>426</v>
+        <v>279</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10515,19 +10344,19 @@
         <v>106</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>432</v>
+        <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>433</v>
+        <v>280</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>434</v>
+        <v>83</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>83</v>
@@ -10535,14 +10364,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10561,20 +10390,18 @@
         <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>437</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
+        <v>283</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>439</v>
+        <v>284</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10610,17 +10437,19 @@
         <v>83</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>286</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10635,19 +10464,19 @@
         <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>444</v>
+        <v>181</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10655,16 +10484,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10683,19 +10510,19 @@
         <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>115</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>439</v>
+        <v>116</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10744,7 +10571,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10753,36 +10580,36 @@
         <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>83</v>
+        <v>419</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>83</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10790,7 +10617,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>94</v>
@@ -10802,21 +10629,23 @@
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>126</v>
+        <v>328</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>452</v>
+        <v>116</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10840,13 +10669,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10864,7 +10693,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10873,7 +10702,7 @@
         <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>106</v>
@@ -10885,13 +10714,13 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>454</v>
+        <v>181</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -10899,21 +10728,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
@@ -10922,20 +10751,22 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>458</v>
+        <v>328</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10960,13 +10791,13 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -10984,7 +10815,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10999,30 +10830,30 @@
         <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11030,7 +10861,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>94</v>
@@ -11045,16 +10876,20 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>109</v>
+        <v>443</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
@@ -11102,19 +10937,19 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>111</v>
+        <v>441</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -11123,10 +10958,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>112</v>
+        <v>448</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11137,21 +10972,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
@@ -11163,17 +10998,15 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11210,31 +11043,31 @@
         <v>83</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11257,10 +11090,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11268,10 +11101,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>83</v>
@@ -11280,20 +11113,18 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11330,31 +11161,31 @@
         <v>83</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11366,7 +11197,7 @@
         <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11377,10 +11208,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11403,16 +11234,16 @@
         <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>452</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>275</v>
+        <v>454</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11438,13 +11269,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11462,7 +11293,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11483,10 +11314,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>181</v>
+        <v>456</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11497,10 +11328,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11523,17 +11354,15 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11582,7 +11411,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>285</v>
+        <v>458</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11603,10 +11432,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>286</v>
+        <v>459</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11617,10 +11446,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11628,7 +11457,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>94</v>
@@ -11643,17 +11472,15 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>289</v>
+        <v>462</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11702,10 +11529,10 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>94</v>
@@ -11723,10 +11550,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>181</v>
+        <v>465</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11737,10 +11564,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11760,10 +11587,10 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>473</v>
+        <v>328</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>115</v>
@@ -11772,11 +11599,9 @@
         <v>116</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11800,13 +11625,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11824,7 +11649,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11833,7 +11658,7 @@
         <v>94</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -11842,27 +11667,27 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11885,7 +11710,7 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>115</v>
@@ -11894,10 +11719,10 @@
         <v>116</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -11922,13 +11747,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -11946,7 +11771,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11955,7 +11780,7 @@
         <v>94</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>106</v>
@@ -11967,10 +11792,10 @@
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>181</v>
+        <v>479</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -11981,21 +11806,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -12007,7 +11832,7 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>317</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>115</v>
@@ -12016,11 +11841,9 @@
         <v>116</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12044,13 +11867,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>492</v>
+        <v>83</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12068,13 +11891,13 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
@@ -12086,27 +11909,27 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12114,7 +11937,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>94</v>
@@ -12129,20 +11952,18 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>501</v>
+        <v>116</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12190,13 +12011,13 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
@@ -12208,27 +12029,27 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>83</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12239,7 +12060,7 @@
         <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>83</v>
@@ -12251,7 +12072,7 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>108</v>
+        <v>496</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>115</v>
@@ -12259,8 +12080,12 @@
       <c r="M83" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12308,19 +12133,19 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>111</v>
+        <v>495</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>83</v>
+        <v>499</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>83</v>
@@ -12329,10 +12154,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>112</v>
+        <v>501</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12343,10 +12168,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12357,7 +12182,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>83</v>
@@ -12369,13 +12194,13 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12414,31 +12239,31 @@
         <v>83</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>83</v>
@@ -12450,7 +12275,7 @@
         <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12461,21 +12286,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>83</v>
@@ -12484,19 +12309,19 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>114</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12546,19 +12371,19 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>512</v>
+        <v>120</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
@@ -12567,10 +12392,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>513</v>
+        <v>112</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12581,42 +12406,46 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>115</v>
+        <v>506</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
       </c>
@@ -12664,19 +12493,19 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>83</v>
@@ -12685,10 +12514,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -12699,10 +12528,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12710,7 +12539,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>94</v>
@@ -12722,16 +12551,16 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12782,16 +12611,16 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>106</v>
@@ -12803,10 +12632,10 @@
         <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>181</v>
+        <v>515</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12817,10 +12646,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12843,17 +12672,15 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>317</v>
+        <v>511</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>115</v>
+        <v>518</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12878,13 +12705,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>525</v>
+        <v>83</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12902,7 +12729,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12911,7 +12738,7 @@
         <v>94</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>106</v>
@@ -12920,27 +12747,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>527</v>
+        <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>530</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12963,19 +12790,19 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>116</v>
+        <v>523</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13000,13 +12827,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13024,7 +12851,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13042,13 +12869,13 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13059,10 +12886,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13073,7 +12900,7 @@
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>83</v>
@@ -13085,18 +12912,20 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>539</v>
+        <v>328</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>115</v>
+        <v>531</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>116</v>
+        <v>532</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13120,13 +12949,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>83</v>
+        <v>536</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13144,13 +12973,13 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>83</v>
@@ -13162,27 +12991,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>543</v>
+        <v>439</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>544</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13205,18 +13034,18 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>115</v>
+        <v>539</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13264,7 +13093,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13282,27 +13111,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>549</v>
+        <v>83</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>551</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13313,7 +13142,7 @@
         <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>83</v>
@@ -13325,20 +13154,16 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>553</v>
+        <v>108</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>115</v>
+        <v>544</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13386,19 +13211,19 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>556</v>
+        <v>106</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13407,10 +13232,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13421,10 +13246,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13435,7 +13260,7 @@
         <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>83</v>
@@ -13444,18 +13269,20 @@
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>548</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13504,19 +13331,19 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>111</v>
+        <v>547</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>83</v>
@@ -13525,10 +13352,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>83</v>
+        <v>550</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>112</v>
+        <v>551</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13539,14 +13366,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13562,19 +13389,19 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>114</v>
+        <v>553</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>258</v>
+        <v>554</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13624,7 +13451,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>120</v>
+        <v>552</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13636,7 +13463,7 @@
         <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>83</v>
@@ -13645,10 +13472,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>83</v>
+        <v>550</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>112</v>
+        <v>555</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13659,14 +13486,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>562</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13679,25 +13506,25 @@
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>114</v>
+        <v>496</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>563</v>
+        <v>115</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>564</v>
+        <v>116</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>258</v>
+        <v>557</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13746,7 +13573,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13758,7 +13585,7 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -13767,10 +13594,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>181</v>
+        <v>560</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13781,10 +13608,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13807,13 +13634,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>568</v>
+        <v>108</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>569</v>
+        <v>109</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>570</v>
+        <v>110</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13864,7 +13691,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>567</v>
+        <v>111</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13873,10 +13700,10 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>83</v>
@@ -13885,10 +13712,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>572</v>
+        <v>83</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>573</v>
+        <v>112</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -13899,21 +13726,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
@@ -13925,15 +13752,17 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>114</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>575</v>
+        <v>250</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -13982,19 +13811,19 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>574</v>
+        <v>120</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>571</v>
+        <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>83</v>
@@ -14003,10 +13832,10 @@
         <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>572</v>
+        <v>83</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>577</v>
+        <v>112</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14017,45 +13846,45 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>83</v>
+        <v>505</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>579</v>
+        <v>506</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>580</v>
+        <v>507</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>581</v>
+        <v>252</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14080,13 +13909,13 @@
         <v>83</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>583</v>
+        <v>83</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>584</v>
+        <v>83</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14104,31 +13933,31 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>585</v>
+        <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>586</v>
+        <v>83</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>496</v>
+        <v>181</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14139,10 +13968,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14150,10 +13979,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>83</v>
@@ -14162,22 +13991,22 @@
         <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>591</v>
+        <v>340</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14205,10 +14034,10 @@
         <v>148</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14226,13 +14055,13 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>83</v>
@@ -14244,16 +14073,16 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>586</v>
+        <v>344</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>496</v>
+        <v>345</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>83</v>
@@ -14261,10 +14090,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14284,20 +14113,22 @@
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>595</v>
+        <v>416</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O100" t="s" s="2">
-        <v>598</v>
+        <v>418</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14346,7 +14177,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14364,27 +14195,27 @@
         <v>83</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>83</v>
+        <v>575</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>599</v>
+        <v>422</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>83</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14407,16 +14238,20 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>83</v>
       </c>
@@ -14440,13 +14275,13 @@
         <v>83</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>83</v>
@@ -14464,7 +14299,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14473,7 +14308,7 @@
         <v>94</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>106</v>
@@ -14485,10 +14320,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>572</v>
+        <v>181</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>603</v>
+        <v>430</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14499,14 +14334,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14522,21 +14357,23 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>605</v>
+        <v>328</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>115</v>
+        <v>581</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>116</v>
+        <v>582</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>83</v>
       </c>
@@ -14560,13 +14397,13 @@
         <v>83</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>83</v>
@@ -14584,7 +14421,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14602,27 +14439,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>607</v>
+        <v>438</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>608</v>
+        <v>439</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14642,21 +14479,23 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>610</v>
+        <v>84</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>115</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>116</v>
+        <v>585</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
       </c>
@@ -14704,7 +14543,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14725,1107 +14564,15 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>607</v>
+        <v>500</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>612</v>
+        <v>501</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP112" t="s" s="2">
         <v>83</v>
       </c>
     </row>
